--- a/ArticleManage/main_working_folder/output_folders/Data 54 Using granular activated carbon/Data54_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 54 Using granular activated carbon/Data54_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Commercial" sheetId="1" r:id="rId1"/>
-    <sheet name="Z0.15" sheetId="2" r:id="rId4"/>
-    <sheet name="Z0.28" sheetId="3" r:id="rId5"/>
-    <sheet name="Z0.40" sheetId="4" r:id="rId6"/>
-    <sheet name="Z0.53" sheetId="5" r:id="rId7"/>
-    <sheet name="Z0.65" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 Commercial  0-1-0-800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 Z0.15  0-1-0-800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 Z0.28  0-1-0-800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 Z0.40  0-1-0-800 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 Z0.53  0-1-0-800 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 Z0.65  0-1-0-800 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -117,7 +117,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Commercial</a:t>
+              <a:t>Izoterma adsorpcji probki Commercial z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Commercial!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 Commercial  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Commercial!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 Commercial  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -194,6 +194,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -263,6 +265,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -427,7 +431,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Z0.15</a:t>
+              <a:t>Izoterma adsorpcji probki Z0.15 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -486,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Z0.15'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 Z0.15  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Z0.15'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 Z0.15  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -504,6 +508,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -573,6 +579,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -737,7 +745,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Z0.28</a:t>
+              <a:t>Izoterma adsorpcji probki Z0.28 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -796,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Z0.28'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 Z0.28  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Z0.28'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 Z0.28  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -814,6 +822,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -883,6 +893,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1047,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Z0.40</a:t>
+              <a:t>Izoterma adsorpcji probki Z0.40 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1106,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Z0.40'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 Z0.40  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Z0.40'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 Z0.40  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1124,6 +1136,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1193,6 +1207,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1357,7 +1373,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Z0.53</a:t>
+              <a:t>Izoterma adsorpcji probki Z0.53 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1416,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Z0.53'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 Z0.53  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Z0.53'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 Z0.53  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1434,6 +1450,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1503,6 +1521,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1667,7 +1687,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Z0.65</a:t>
+              <a:t>Izoterma adsorpcji probki Z0.65 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1726,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Z0.65'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 Z0.65  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Z0.65'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 Z0.65  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1744,6 +1764,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1813,6 +1835,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 54 Using granular activated carbon/Data54_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 54 Using granular activated carbon/Data54_all_graphs_excel.xlsx
@@ -6173,7 +6173,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6194,237 +6194,253 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1758</v>
+        <v>0.3008</v>
       </c>
       <c r="B3" s="0">
-        <v>153.1433</v>
+        <v>156.5312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.3008</v>
+        <v>0.3496</v>
       </c>
       <c r="B4" s="0">
-        <v>156.5312</v>
+        <v>157.4459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.3496</v>
+        <v>0.3994</v>
       </c>
       <c r="B5" s="0">
-        <v>157.4459</v>
+        <v>157.9059</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.3994</v>
+        <v>0.4495</v>
       </c>
       <c r="B6" s="0">
-        <v>157.9059</v>
+        <v>158.1791</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.4495</v>
+        <v>0.4995</v>
       </c>
       <c r="B7" s="0">
-        <v>158.1791</v>
+        <v>158.6305</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.4995</v>
+        <v>0.5497</v>
       </c>
       <c r="B8" s="0">
-        <v>158.6305</v>
+        <v>159.2933</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.5497</v>
+        <v>0.5998</v>
       </c>
       <c r="B9" s="0">
-        <v>159.2933</v>
+        <v>159.2901</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5998</v>
+        <v>0.6497</v>
       </c>
       <c r="B10" s="0">
-        <v>159.2901</v>
+        <v>159.272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6497</v>
+        <v>0.6997</v>
       </c>
       <c r="B11" s="0">
-        <v>159.272</v>
+        <v>159.7862</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6997</v>
+        <v>0.7393</v>
       </c>
       <c r="B12" s="0">
-        <v>159.7862</v>
+        <v>159.7307</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.7393</v>
+        <v>0.7697</v>
       </c>
       <c r="B13" s="0">
-        <v>159.7307</v>
+        <v>160.2399</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7697</v>
+        <v>0.8012</v>
       </c>
       <c r="B14" s="0">
-        <v>160.2399</v>
+        <v>159.5416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.8999</v>
+        <v>0.8174</v>
       </c>
       <c r="B15" s="0">
-        <v>160.8912</v>
+        <v>160.7096</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1103</v>
+        <v>0.8386</v>
       </c>
       <c r="B16" s="0">
-        <v>149.5521</v>
+        <v>160.734</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1416</v>
+        <v>0.8891</v>
       </c>
       <c r="B17" s="0">
-        <v>150.7375</v>
+        <v>161.9415</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1628</v>
+        <v>0.9578</v>
       </c>
       <c r="B18" s="0">
-        <v>151.9113</v>
+        <v>162.0204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1992</v>
+        <v>0.979</v>
       </c>
       <c r="B19" s="0">
-        <v>151.9531</v>
+        <v>162.0448</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2527</v>
+        <v>0.9921</v>
       </c>
       <c r="B20" s="0">
-        <v>154.3135</v>
+        <v>163.2093</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.8012</v>
+        <v>0.2497</v>
       </c>
       <c r="B21" s="0">
-        <v>159.5416</v>
+        <v>155.4594</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.8174</v>
+        <v>0.2002</v>
       </c>
       <c r="B22" s="0">
-        <v>160.7096</v>
+        <v>154.2531</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.8386</v>
+        <v>0.182</v>
       </c>
       <c r="B23" s="0">
-        <v>160.734</v>
+        <v>154.2322</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8618</v>
+        <v>0.1608</v>
       </c>
       <c r="B24" s="0">
-        <v>161.9101</v>
+        <v>153.0584</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.876</v>
+        <v>0.1436</v>
       </c>
       <c r="B25" s="0">
-        <v>163.0758</v>
+        <v>151.8892</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8891</v>
+        <v>0.1133</v>
       </c>
       <c r="B26" s="0">
-        <v>161.9415</v>
+        <v>150.705</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9164</v>
+        <v>0.8598</v>
       </c>
       <c r="B27" s="0">
-        <v>159.674</v>
+        <v>160.7584</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9396</v>
+        <v>0.875</v>
       </c>
       <c r="B28" s="0">
-        <v>159.7007</v>
+        <v>161.9252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9578</v>
+        <v>0.9053</v>
       </c>
       <c r="B29" s="0">
-        <v>162.0204</v>
+        <v>160.8106</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.979</v>
+        <v>0.9184</v>
       </c>
       <c r="B30" s="0">
-        <v>162.0448</v>
+        <v>161.9752</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9921</v>
+        <v>0.9295</v>
       </c>
       <c r="B31" s="0">
-        <v>163.2093</v>
-      </c>
-    </row>
-    <row r="32"/>
+        <v>163.1374</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9426</v>
+      </c>
+      <c r="B32" s="0">
+        <v>162.003</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.9679</v>
+      </c>
+      <c r="B33" s="0">
+        <v>162.032</v>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6454,250 +6470,250 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0346</v>
+        <v>0.1155</v>
       </c>
       <c r="B3" s="0">
-        <v>239.1203</v>
+        <v>275.9948</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1155</v>
+        <v>0.162</v>
       </c>
       <c r="B4" s="0">
-        <v>275.9948</v>
+        <v>284.0942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1438</v>
+        <v>0.1812</v>
       </c>
       <c r="B5" s="0">
-        <v>281.7745</v>
+        <v>286.4151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.162</v>
+        <v>0.2024</v>
       </c>
       <c r="B6" s="0">
-        <v>284.0942</v>
+        <v>289.8878</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1812</v>
+        <v>0.2499</v>
       </c>
       <c r="B7" s="0">
-        <v>286.4151</v>
+        <v>293.3906</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2024</v>
+        <v>0.3044</v>
       </c>
       <c r="B8" s="0">
-        <v>289.8878</v>
+        <v>294.6028</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2499</v>
+        <v>0.3984</v>
       </c>
       <c r="B9" s="0">
-        <v>293.3906</v>
+        <v>299.3085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3044</v>
+        <v>0.4509</v>
       </c>
       <c r="B10" s="0">
-        <v>294.6028</v>
+        <v>301.6677</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3539</v>
+        <v>0.5004</v>
       </c>
       <c r="B11" s="0">
-        <v>299.2574</v>
+        <v>301.7246</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.3984</v>
+        <v>0.5499</v>
       </c>
       <c r="B12" s="0">
-        <v>299.3085</v>
+        <v>304.0803</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4509</v>
+        <v>0.6004</v>
       </c>
       <c r="B13" s="0">
-        <v>301.6677</v>
+        <v>305.2878</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5004</v>
+        <v>0.6499</v>
       </c>
       <c r="B14" s="0">
-        <v>301.7246</v>
+        <v>304.1953</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.5499</v>
+        <v>0.6994</v>
       </c>
       <c r="B15" s="0">
-        <v>304.0803</v>
+        <v>305.4016</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6004</v>
+        <v>0.7701</v>
       </c>
       <c r="B16" s="0">
-        <v>305.2878</v>
+        <v>305.4829</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6499</v>
+        <v>0.86</v>
       </c>
       <c r="B17" s="0">
-        <v>304.1953</v>
+        <v>307.885</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6994</v>
+        <v>0.8751</v>
       </c>
       <c r="B18" s="0">
-        <v>305.4016</v>
+        <v>306.753</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.7388</v>
+        <v>0.8903</v>
       </c>
       <c r="B19" s="0">
-        <v>304.2974</v>
+        <v>306.7704</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.7701</v>
+        <v>0.9044</v>
       </c>
       <c r="B20" s="0">
-        <v>305.4829</v>
+        <v>306.7867</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.7994</v>
+        <v>0.9226</v>
       </c>
       <c r="B21" s="0">
-        <v>305.5165</v>
+        <v>307.957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.8206</v>
+        <v>0.9297</v>
       </c>
       <c r="B22" s="0">
-        <v>305.5409</v>
+        <v>306.8157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.8388</v>
+        <v>0.966</v>
       </c>
       <c r="B23" s="0">
-        <v>305.5618</v>
+        <v>310.3058</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.86</v>
+        <v>0.9913</v>
       </c>
       <c r="B24" s="0">
-        <v>307.885</v>
+        <v>312.6337</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8751</v>
+        <v>0.0316</v>
       </c>
       <c r="B25" s="0">
-        <v>306.753</v>
+        <v>239.1168</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8903</v>
+        <v>0.1428</v>
       </c>
       <c r="B26" s="0">
-        <v>306.7704</v>
+        <v>281.7733</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9044</v>
+        <v>0.3549</v>
       </c>
       <c r="B27" s="0">
-        <v>306.7867</v>
+        <v>298.1091</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9165</v>
+        <v>0.9438</v>
       </c>
       <c r="B28" s="0">
-        <v>307.9501</v>
+        <v>309.1308</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9226</v>
+        <v>0.9145</v>
       </c>
       <c r="B29" s="0">
-        <v>307.957</v>
+        <v>307.9477</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9297</v>
+        <v>0.8398</v>
       </c>
       <c r="B30" s="0">
-        <v>306.8157</v>
+        <v>307.8618</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9438</v>
+        <v>0.8196</v>
       </c>
       <c r="B31" s="0">
-        <v>307.9814</v>
+        <v>306.6892</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.966</v>
+        <v>0.8004</v>
       </c>
       <c r="B32" s="0">
-        <v>310.3058</v>
+        <v>306.6671</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9913</v>
+        <v>0.7398</v>
       </c>
       <c r="B33" s="0">
-        <v>312.6337</v>
+        <v>306.5974</v>
       </c>
     </row>
     <row r="34"/>
@@ -6709,7 +6725,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6730,277 +6746,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0195</v>
+        <v>0.0266</v>
       </c>
       <c r="B3" s="0">
-        <v>229.9075</v>
+        <v>244.8581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0266</v>
+        <v>0.0559</v>
       </c>
       <c r="B4" s="0">
-        <v>244.8581</v>
+        <v>272.478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0427</v>
+        <v>0.1044</v>
       </c>
       <c r="B5" s="0">
-        <v>258.6698</v>
+        <v>298.9706</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0559</v>
+        <v>0.3065</v>
       </c>
       <c r="B6" s="0">
-        <v>272.478</v>
+        <v>333.6856</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0771</v>
+        <v>0.356</v>
       </c>
       <c r="B7" s="0">
-        <v>283.9967</v>
+        <v>337.1908</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1044</v>
+        <v>0.3994</v>
       </c>
       <c r="B8" s="0">
-        <v>298.9706</v>
+        <v>338.3901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1367</v>
+        <v>0.4509</v>
       </c>
       <c r="B9" s="0">
-        <v>307.0537</v>
+        <v>339.5988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1661</v>
+        <v>0.4994</v>
       </c>
       <c r="B10" s="0">
-        <v>315.1334</v>
+        <v>341.9534</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1842</v>
+        <v>0.5519</v>
       </c>
       <c r="B11" s="0">
-        <v>322.0509</v>
+        <v>343.1632</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2065</v>
+        <v>0.5994</v>
       </c>
       <c r="B12" s="0">
-        <v>323.2258</v>
+        <v>343.2177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2519</v>
+        <v>0.6489</v>
       </c>
       <c r="B13" s="0">
-        <v>327.8758</v>
+        <v>344.424</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3065</v>
+        <v>0.6994</v>
       </c>
       <c r="B14" s="0">
-        <v>333.6856</v>
+        <v>345.6315</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.356</v>
+        <v>0.7408</v>
       </c>
       <c r="B15" s="0">
-        <v>337.1908</v>
+        <v>346.8286</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3994</v>
+        <v>0.8206</v>
       </c>
       <c r="B16" s="0">
-        <v>338.3901</v>
+        <v>349.2191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4509</v>
+        <v>0.8398</v>
       </c>
       <c r="B17" s="0">
-        <v>339.5988</v>
+        <v>348.0918</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4994</v>
+        <v>0.86</v>
       </c>
       <c r="B18" s="0">
-        <v>341.9534</v>
+        <v>349.2644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5519</v>
+        <v>0.8752</v>
       </c>
       <c r="B19" s="0">
-        <v>343.1632</v>
+        <v>349.2818</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5994</v>
+        <v>0.8893</v>
       </c>
       <c r="B20" s="0">
-        <v>343.2177</v>
+        <v>349.2981</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6489</v>
+        <v>0.9045</v>
       </c>
       <c r="B21" s="0">
-        <v>344.424</v>
+        <v>349.3155</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6994</v>
+        <v>0.9146</v>
       </c>
       <c r="B22" s="0">
-        <v>345.6315</v>
+        <v>349.3271</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7408</v>
+        <v>0.9247</v>
       </c>
       <c r="B23" s="0">
-        <v>346.8286</v>
+        <v>350.4881</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7691</v>
+        <v>0.9328</v>
       </c>
       <c r="B24" s="0">
-        <v>346.8611</v>
+        <v>350.4974</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7994</v>
+        <v>0.9408</v>
       </c>
       <c r="B25" s="0">
-        <v>344.597</v>
+        <v>350.5067</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8206</v>
+        <v>0.956</v>
       </c>
       <c r="B26" s="0">
-        <v>349.2191</v>
+        <v>351.6736</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8398</v>
+        <v>0.9722</v>
       </c>
       <c r="B27" s="0">
-        <v>348.0918</v>
+        <v>350.5427</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.86</v>
+        <v>0.9903</v>
       </c>
       <c r="B28" s="0">
-        <v>349.2644</v>
+        <v>351.713</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.8752</v>
+        <v>0.8014</v>
       </c>
       <c r="B29" s="0">
-        <v>349.2818</v>
+        <v>346.8982</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.8903</v>
+        <v>0.7701</v>
       </c>
       <c r="B30" s="0">
-        <v>349.2992</v>
+        <v>348.0117</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9045</v>
+        <v>0.2509</v>
       </c>
       <c r="B31" s="0">
-        <v>348.1661</v>
+        <v>331.3229</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9156</v>
+        <v>0.2065</v>
       </c>
       <c r="B32" s="0">
-        <v>350.4777</v>
+        <v>324.3753</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9398</v>
+        <v>0.1842</v>
       </c>
       <c r="B33" s="0">
-        <v>350.5056</v>
+        <v>322.0509</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.956</v>
+        <v>0.164</v>
       </c>
       <c r="B34" s="0">
-        <v>350.5241</v>
+        <v>317.4299</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.9742</v>
+        <v>0.1378</v>
       </c>
       <c r="B35" s="0">
-        <v>350.545</v>
+        <v>309.3538</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.9924</v>
+        <v>0.0781</v>
       </c>
       <c r="B36" s="0">
-        <v>349.4165</v>
-      </c>
-    </row>
-    <row r="37"/>
+        <v>285.1473</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0397</v>
+      </c>
+      <c r="B37" s="0">
+        <v>260.9652</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0165</v>
+      </c>
+      <c r="B38" s="0">
+        <v>232.2028</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7009,7 +7041,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7030,237 +7062,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="B3" s="0">
-        <v>436.478</v>
+        <v>440.9948</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.8</v>
+        <v>0.2045</v>
       </c>
       <c r="B4" s="0">
-        <v>442.1555</v>
+        <v>392.1891</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.82</v>
+        <v>0.1823</v>
       </c>
       <c r="B5" s="0">
-        <v>440.9948</v>
+        <v>385.267</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.84</v>
+        <v>0.1631</v>
       </c>
       <c r="B6" s="0">
-        <v>443.191</v>
+        <v>376.0495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.92</v>
+        <v>0.25</v>
       </c>
       <c r="B7" s="0">
-        <v>441.6656</v>
+        <v>404.8851</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0661</v>
+        <v>0.2934</v>
       </c>
       <c r="B8" s="0">
-        <v>318.4667</v>
+        <v>411.8316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0843</v>
+        <v>0.343</v>
       </c>
       <c r="B9" s="0">
-        <v>333.4302</v>
+        <v>418.785</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1105</v>
+        <v>0.3995</v>
       </c>
       <c r="B10" s="0">
-        <v>349.5523</v>
+        <v>423.4477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2045</v>
+        <v>0.449</v>
       </c>
       <c r="B11" s="0">
-        <v>392.1891</v>
+        <v>426.9529</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1823</v>
+        <v>0.4995</v>
       </c>
       <c r="B12" s="0">
-        <v>385.267</v>
+        <v>430.4592</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1631</v>
+        <v>0.649</v>
       </c>
       <c r="B13" s="0">
-        <v>376.0495</v>
+        <v>435.2288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1368</v>
+        <v>0.9894</v>
       </c>
       <c r="B14" s="0">
-        <v>364.5251</v>
+        <v>443.666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.25</v>
+        <v>0.9672</v>
       </c>
       <c r="B15" s="0">
-        <v>404.8851</v>
+        <v>442.4911</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2934</v>
+        <v>0.944</v>
       </c>
       <c r="B16" s="0">
-        <v>411.8316</v>
+        <v>443.6138</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.343</v>
+        <v>0.8591</v>
       </c>
       <c r="B17" s="0">
-        <v>418.785</v>
+        <v>440.068</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3995</v>
+        <v>0.7702</v>
       </c>
       <c r="B18" s="0">
-        <v>423.4477</v>
+        <v>438.8164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.449</v>
+        <v>0.7399</v>
       </c>
       <c r="B19" s="0">
-        <v>426.9529</v>
+        <v>437.6321</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4995</v>
+        <v>0.6995</v>
       </c>
       <c r="B20" s="0">
-        <v>430.4592</v>
+        <v>437.5857</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.55</v>
+        <v>0.0651</v>
       </c>
       <c r="B21" s="0">
-        <v>436.2644</v>
+        <v>321.9139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.649</v>
+        <v>0.0853</v>
       </c>
       <c r="B22" s="0">
-        <v>435.2288</v>
+        <v>335.7302</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9894</v>
+        <v>0.1095</v>
       </c>
       <c r="B23" s="0">
-        <v>443.666</v>
+        <v>351.85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9672</v>
+        <v>0.1358</v>
       </c>
       <c r="B24" s="0">
-        <v>442.4911</v>
+        <v>364.5239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.944</v>
+        <v>0.55</v>
       </c>
       <c r="B25" s="0">
-        <v>443.6138</v>
+        <v>432.8161</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8915</v>
+        <v>0.6005</v>
       </c>
       <c r="B26" s="0">
-        <v>441.2546</v>
+        <v>434.0236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8743</v>
+        <v>0.8006</v>
       </c>
       <c r="B27" s="0">
-        <v>438.936</v>
+        <v>440.0006</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8591</v>
+        <v>0.8399</v>
       </c>
       <c r="B28" s="0">
-        <v>440.068</v>
+        <v>441.1953</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7702</v>
+        <v>0.8753</v>
       </c>
       <c r="B29" s="0">
-        <v>438.8164</v>
+        <v>441.236</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7399</v>
+        <v>0.8905</v>
       </c>
       <c r="B30" s="0">
-        <v>437.6321</v>
+        <v>441.2534</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6995</v>
+        <v>0.9046</v>
       </c>
       <c r="B31" s="0">
-        <v>437.5857</v>
-      </c>
-    </row>
-    <row r="32"/>
+        <v>442.4191</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9147</v>
+      </c>
+      <c r="B32" s="0">
+        <v>442.4307</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.9248</v>
+      </c>
+      <c r="B33" s="0">
+        <v>443.5917</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.9329</v>
+      </c>
+      <c r="B34" s="0">
+        <v>443.601</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7354,258 +7410,258 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1571</v>
+        <v>0.1794</v>
       </c>
       <c r="B11" s="0">
-        <v>443.8588</v>
+        <v>459.9763</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1794</v>
+        <v>0.2421</v>
       </c>
       <c r="B12" s="0">
-        <v>459.9763</v>
+        <v>504.8759</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1996</v>
+        <v>0.2522</v>
       </c>
       <c r="B13" s="0">
-        <v>473.7926</v>
+        <v>511.7841</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2208</v>
+        <v>0.2784</v>
       </c>
       <c r="B14" s="0">
-        <v>487.6101</v>
+        <v>525.6074</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2421</v>
+        <v>0.2976</v>
       </c>
       <c r="B15" s="0">
-        <v>504.8759</v>
+        <v>537.1237</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2522</v>
+        <v>0.3259</v>
       </c>
       <c r="B16" s="0">
-        <v>511.7841</v>
+        <v>553.2482</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2784</v>
+        <v>0.4513</v>
       </c>
       <c r="B17" s="0">
-        <v>525.6074</v>
+        <v>597.0704</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2976</v>
+        <v>0.5018</v>
       </c>
       <c r="B18" s="0">
-        <v>537.1237</v>
+        <v>607.4733</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3259</v>
+        <v>0.5503</v>
       </c>
       <c r="B19" s="0">
-        <v>553.2482</v>
+        <v>613.2762</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3492</v>
+        <v>0.6018</v>
       </c>
       <c r="B20" s="0">
-        <v>563.6198</v>
+        <v>617.9331</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3836</v>
+        <v>0.6503</v>
       </c>
       <c r="B21" s="0">
-        <v>575.1535</v>
+        <v>621.4371</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4017</v>
+        <v>0.7402</v>
       </c>
       <c r="B22" s="0">
-        <v>584.3698</v>
+        <v>627.2876</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4513</v>
+        <v>0.7725</v>
       </c>
       <c r="B23" s="0">
-        <v>597.0704</v>
+        <v>630.773</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5018</v>
+        <v>0.8008</v>
       </c>
       <c r="B24" s="0">
-        <v>607.4733</v>
+        <v>631.9549</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5503</v>
+        <v>0.823</v>
       </c>
       <c r="B25" s="0">
-        <v>613.2762</v>
+        <v>633.1299</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6018</v>
+        <v>0.8412</v>
       </c>
       <c r="B26" s="0">
-        <v>617.9331</v>
+        <v>633.1508</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6503</v>
+        <v>0.8634</v>
       </c>
       <c r="B27" s="0">
-        <v>621.4371</v>
+        <v>634.3258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.7028</v>
+        <v>0.8755</v>
       </c>
       <c r="B28" s="0">
-        <v>624.9458</v>
+        <v>634.3397</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7402</v>
+        <v>0.9038</v>
       </c>
       <c r="B29" s="0">
-        <v>627.2876</v>
+        <v>636.6711</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7725</v>
+        <v>0.9139</v>
       </c>
       <c r="B30" s="0">
-        <v>630.773</v>
+        <v>636.6827</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8008</v>
+        <v>0.9463</v>
       </c>
       <c r="B31" s="0">
-        <v>631.9549</v>
+        <v>639.0187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.823</v>
+        <v>0.9675</v>
       </c>
       <c r="B32" s="0">
-        <v>633.1299</v>
+        <v>640.1925</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8412</v>
+        <v>0.9907</v>
       </c>
       <c r="B33" s="0">
-        <v>633.1508</v>
+        <v>640.2192</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8634</v>
+        <v>0.1581</v>
       </c>
       <c r="B34" s="0">
-        <v>634.3258</v>
+        <v>445.0094</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8755</v>
+        <v>0.1996</v>
       </c>
       <c r="B35" s="0">
-        <v>634.3397</v>
+        <v>474.9421</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8917</v>
+        <v>0.2208</v>
       </c>
       <c r="B36" s="0">
-        <v>634.3583</v>
+        <v>489.909</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9038</v>
+        <v>0.3472</v>
       </c>
       <c r="B37" s="0">
-        <v>636.6711</v>
+        <v>563.6174</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9139</v>
+        <v>0.3836</v>
       </c>
       <c r="B38" s="0">
-        <v>636.6827</v>
+        <v>578.6018</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9261</v>
+        <v>0.3997</v>
       </c>
       <c r="B39" s="0">
-        <v>636.6966</v>
+        <v>584.3675</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9463</v>
+        <v>0.7018</v>
       </c>
       <c r="B40" s="0">
-        <v>639.0187</v>
+        <v>626.094</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.9675</v>
+        <v>0.8907</v>
       </c>
       <c r="B41" s="0">
-        <v>640.1925</v>
+        <v>635.5066</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.9907</v>
+        <v>0.9301</v>
       </c>
       <c r="B42" s="0">
-        <v>640.2192</v>
+        <v>637.8507</v>
       </c>
     </row>
     <row r="43"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 54 Using granular activated carbon/Data54_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 54 Using granular activated carbon/Data54_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 Commercial  0-1-0-800 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 Z0.15  0-1-0-800 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 Z0.28  0-1-0-800 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 Z0.40  0-1-0-800 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2 Z0.53  0-1-0-800 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2 Z0.65  0-1-0-800 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 Commercial  0&amp;1&amp;0&amp;800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 Z0.15  0&amp;1&amp;0&amp;800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 Z0.28  0&amp;1&amp;0&amp;800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 Z0.40  0&amp;1&amp;0&amp;800 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 Z0.53  0&amp;1&amp;0&amp;800 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 Z0.65  0&amp;1&amp;0&amp;800 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 Commercial  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 Commercial  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 Commercial  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 Commercial  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -490,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 Z0.15  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 Z0.15  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 Z0.15  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 Z0.15  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -804,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 Z0.28  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 Z0.28  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 Z0.28  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 Z0.28  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1118,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 Z0.40  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 Z0.40  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 Z0.40  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 Z0.40  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1432,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 Z0.53  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 Z0.53  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 Z0.53  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 Z0.53  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1746,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 Z0.65  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 Z0.65  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 Z0.65  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 Z0.65  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>

--- a/ArticleManage/main_working_folder/output_folders/Data 54 Using granular activated carbon/Data54_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 54 Using granular activated carbon/Data54_all_graphs_excel.xlsx
@@ -11,13 +11,19 @@
     <sheet name="Figure 2 Z0.40  0&amp;1&amp;0&amp;800 " sheetId="4" r:id="rId6"/>
     <sheet name="Figure 2 Z0.53  0&amp;1&amp;0&amp;800 " sheetId="5" r:id="rId7"/>
     <sheet name="Figure 2 Z0.65  0&amp;1&amp;0&amp;800 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 3 Commercial  0&amp;1&amp;0&amp;800 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 3 CZ0.15  0&amp;1&amp;0&amp;800 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 3 CZ0.28  0&amp;1&amp;0&amp;800 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 3 CZ0.40  0&amp;1&amp;0&amp;800 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 3 CZ0.53  0&amp;1&amp;0&amp;800 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 3 CZ0.65  0&amp;1&amp;0&amp;800 " sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Commercial</t>
   </si>
@@ -41,6 +47,21 @@
   </si>
   <si>
     <t>Z0.65</t>
+  </si>
+  <si>
+    <t>CZ0.15</t>
+  </si>
+  <si>
+    <t>CZ0.28</t>
+  </si>
+  <si>
+    <t>CZ0.40</t>
+  </si>
+  <si>
+    <t>CZ0.53</t>
+  </si>
+  <si>
+    <t>CZ0.65</t>
   </si>
 </sst>
 </file>
@@ -182,6 +203,948 @@
           <c:yVal>
             <c:numRef>
               <c:f>'Figure 2 Commercial  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CZ0.40 z wykresu 'Figure 3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3 CZ0.40  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3 CZ0.40  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CZ0.53 z wykresu 'Figure 3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3 CZ0.53  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3 CZ0.53  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CZ0.65 z wykresu 'Figure 3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3 CZ0.65  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3 CZ0.65  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1968,7 +2931,1069 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki Commercial z wykresu 'Figure 3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3 Commercial  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3 Commercial  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CZ0.15 z wykresu 'Figure 3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3 CZ0.15  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3 CZ0.15  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CZ0.28 z wykresu 'Figure 3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3 CZ0.28  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3 CZ0.28  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2208,6 +4233,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2729,7 +4874,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3250,7 +5395,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3771,7 +5916,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4292,7 +6437,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4813,7 +6958,3133 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5352,6 +10623,111 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5544,6 +10920,111 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6171,6 +11652,938 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9893</v>
+      </c>
+      <c r="B3" s="0">
+        <v>310.9267</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9805</v>
+      </c>
+      <c r="B4" s="0">
+        <v>309.8202</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9689</v>
+      </c>
+      <c r="B5" s="0">
+        <v>309.8202</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9582</v>
+      </c>
+      <c r="B6" s="0">
+        <v>308.7137</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9455</v>
+      </c>
+      <c r="B7" s="0">
+        <v>308.7137</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.9358</v>
+      </c>
+      <c r="B8" s="0">
+        <v>308.7137</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.927</v>
+      </c>
+      <c r="B9" s="0">
+        <v>307.6072</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.9163</v>
+      </c>
+      <c r="B10" s="0">
+        <v>308.7137</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.9037</v>
+      </c>
+      <c r="B11" s="0">
+        <v>307.6072</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.8901</v>
+      </c>
+      <c r="B12" s="0">
+        <v>308.7137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.8755</v>
+      </c>
+      <c r="B13" s="0">
+        <v>307.6072</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.8609</v>
+      </c>
+      <c r="B14" s="0">
+        <v>307.6072</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.8405</v>
+      </c>
+      <c r="B15" s="0">
+        <v>307.6072</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B16" s="0">
+        <v>307.6072</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.8006</v>
+      </c>
+      <c r="B17" s="0">
+        <v>307.6072</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.7704</v>
+      </c>
+      <c r="B18" s="0">
+        <v>307.6072</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.7412</v>
+      </c>
+      <c r="B19" s="0">
+        <v>307.6072</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.7004</v>
+      </c>
+      <c r="B20" s="0">
+        <v>307.6072</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6508</v>
+      </c>
+      <c r="B21" s="0">
+        <v>307.6072</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.6002</v>
+      </c>
+      <c r="B22" s="0">
+        <v>307.6072</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.5506</v>
+      </c>
+      <c r="B23" s="0">
+        <v>306.5007</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B24" s="0">
+        <v>305.3942</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.4494</v>
+      </c>
+      <c r="B25" s="0">
+        <v>305.3942</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.3988</v>
+      </c>
+      <c r="B26" s="0">
+        <v>305.3942</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.358</v>
+      </c>
+      <c r="B27" s="0">
+        <v>304.2877</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.3054</v>
+      </c>
+      <c r="B28" s="0">
+        <v>302.0747</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.251</v>
+      </c>
+      <c r="B29" s="0">
+        <v>298.7552</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.2043</v>
+      </c>
+      <c r="B30" s="0">
+        <v>293.2227</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.1819</v>
+      </c>
+      <c r="B31" s="0">
+        <v>291.0097</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.1615</v>
+      </c>
+      <c r="B32" s="0">
+        <v>286.5837</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.1411</v>
+      </c>
+      <c r="B33" s="0">
+        <v>282.1577</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.106</v>
+      </c>
+      <c r="B34" s="0">
+        <v>272.1992</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0253</v>
+      </c>
+      <c r="B35" s="0">
+        <v>230.1521</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0049</v>
+      </c>
+      <c r="B36" s="0">
+        <v>215.7676</v>
+      </c>
+    </row>
+    <row r="37"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9903</v>
+      </c>
+      <c r="B3" s="0">
+        <v>398.3402</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9796</v>
+      </c>
+      <c r="B4" s="0">
+        <v>399.4467</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9689</v>
+      </c>
+      <c r="B5" s="0">
+        <v>398.3402</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9591</v>
+      </c>
+      <c r="B6" s="0">
+        <v>398.3402</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9465</v>
+      </c>
+      <c r="B7" s="0">
+        <v>397.2337</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.9339</v>
+      </c>
+      <c r="B8" s="0">
+        <v>396.1272</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.9261</v>
+      </c>
+      <c r="B9" s="0">
+        <v>396.1272</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.9163</v>
+      </c>
+      <c r="B10" s="0">
+        <v>396.1272</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.9047</v>
+      </c>
+      <c r="B11" s="0">
+        <v>395.0207</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.8901</v>
+      </c>
+      <c r="B12" s="0">
+        <v>395.0207</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.8755</v>
+      </c>
+      <c r="B13" s="0">
+        <v>395.0207</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.8609</v>
+      </c>
+      <c r="B14" s="0">
+        <v>395.0207</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.8395</v>
+      </c>
+      <c r="B15" s="0">
+        <v>395.0207</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.8191</v>
+      </c>
+      <c r="B16" s="0">
+        <v>395.0207</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.7986</v>
+      </c>
+      <c r="B17" s="0">
+        <v>393.9142</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.7695</v>
+      </c>
+      <c r="B18" s="0">
+        <v>392.8077</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.7393</v>
+      </c>
+      <c r="B19" s="0">
+        <v>392.8077</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.6994</v>
+      </c>
+      <c r="B20" s="0">
+        <v>392.8077</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6488</v>
+      </c>
+      <c r="B21" s="0">
+        <v>392.8077</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.5992</v>
+      </c>
+      <c r="B22" s="0">
+        <v>391.7012</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.5496</v>
+      </c>
+      <c r="B23" s="0">
+        <v>390.5947</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.499</v>
+      </c>
+      <c r="B24" s="0">
+        <v>388.3817</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.4669</v>
+      </c>
+      <c r="B25" s="0">
+        <v>388.3817</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.4154</v>
+      </c>
+      <c r="B26" s="0">
+        <v>386.1687</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.3638</v>
+      </c>
+      <c r="B27" s="0">
+        <v>382.8492</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.3093</v>
+      </c>
+      <c r="B28" s="0">
+        <v>378.4232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="B29" s="0">
+        <v>368.4647</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.2053</v>
+      </c>
+      <c r="B30" s="0">
+        <v>358.5062</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.1829</v>
+      </c>
+      <c r="B31" s="0">
+        <v>351.8672</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.1625</v>
+      </c>
+      <c r="B32" s="0">
+        <v>344.1217</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.1401</v>
+      </c>
+      <c r="B33" s="0">
+        <v>337.4827</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.1167</v>
+      </c>
+      <c r="B34" s="0">
+        <v>326.4177</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0875</v>
+      </c>
+      <c r="B35" s="0">
+        <v>312.0332</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0642</v>
+      </c>
+      <c r="B36" s="0">
+        <v>297.6487</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0058</v>
+      </c>
+      <c r="B37" s="0">
+        <v>226.8326</v>
+      </c>
+    </row>
+    <row r="38"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9912</v>
+      </c>
+      <c r="B3" s="0">
+        <v>582.0194</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9689</v>
+      </c>
+      <c r="B4" s="0">
+        <v>582.0194</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9514</v>
+      </c>
+      <c r="B5" s="0">
+        <v>579.8064</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9339</v>
+      </c>
+      <c r="B6" s="0">
+        <v>579.8064</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9261</v>
+      </c>
+      <c r="B7" s="0">
+        <v>578.6999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.9163</v>
+      </c>
+      <c r="B8" s="0">
+        <v>577.5934</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.9056</v>
+      </c>
+      <c r="B9" s="0">
+        <v>577.5934</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8901</v>
+      </c>
+      <c r="B10" s="0">
+        <v>576.4869</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.8755</v>
+      </c>
+      <c r="B11" s="0">
+        <v>576.4869</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.8609</v>
+      </c>
+      <c r="B12" s="0">
+        <v>576.4869</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.8414</v>
+      </c>
+      <c r="B13" s="0">
+        <v>575.3804</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.821</v>
+      </c>
+      <c r="B14" s="0">
+        <v>574.2739</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.8006</v>
+      </c>
+      <c r="B15" s="0">
+        <v>574.2739</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.7704</v>
+      </c>
+      <c r="B16" s="0">
+        <v>570.9544</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.7403</v>
+      </c>
+      <c r="B17" s="0">
+        <v>570.9544</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.7004</v>
+      </c>
+      <c r="B18" s="0">
+        <v>569.8479</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.6498</v>
+      </c>
+      <c r="B19" s="0">
+        <v>568.7414</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5992</v>
+      </c>
+      <c r="B20" s="0">
+        <v>566.5284</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.5486</v>
+      </c>
+      <c r="B21" s="0">
+        <v>563.2089</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B22" s="0">
+        <v>558.7828</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4514</v>
+      </c>
+      <c r="B23" s="0">
+        <v>552.1438</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3979</v>
+      </c>
+      <c r="B24" s="0">
+        <v>541.0788</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3901</v>
+      </c>
+      <c r="B25" s="0">
+        <v>539.9723</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.3473</v>
+      </c>
+      <c r="B26" s="0">
+        <v>525.5878</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.3327</v>
+      </c>
+      <c r="B27" s="0">
+        <v>520.0553</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.2986</v>
+      </c>
+      <c r="B28" s="0">
+        <v>504.5643</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.2763</v>
+      </c>
+      <c r="B29" s="0">
+        <v>494.6058</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.2481</v>
+      </c>
+      <c r="B30" s="0">
+        <v>480.2213</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.2276</v>
+      </c>
+      <c r="B31" s="0">
+        <v>466.9433</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.2014</v>
+      </c>
+      <c r="B32" s="0">
+        <v>452.5588</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B33" s="0">
+        <v>440.3873</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.1595</v>
+      </c>
+      <c r="B34" s="0">
+        <v>427.1093</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.1362</v>
+      </c>
+      <c r="B35" s="0">
+        <v>410.5118</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.1158</v>
+      </c>
+      <c r="B36" s="0">
+        <v>397.2337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0963</v>
+      </c>
+      <c r="B37" s="0">
+        <v>381.7427</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0428</v>
+      </c>
+      <c r="B38" s="0">
+        <v>333.0567</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0019</v>
+      </c>
+      <c r="B39" s="0">
+        <v>244.5367</v>
+      </c>
+    </row>
+    <row r="40"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B34"/>
@@ -7669,4 +14082,920 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9981</v>
+      </c>
+      <c r="B3" s="0">
+        <v>303.1812</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9854</v>
+      </c>
+      <c r="B4" s="0">
+        <v>298.7552</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9757</v>
+      </c>
+      <c r="B5" s="0">
+        <v>295.4357</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9572</v>
+      </c>
+      <c r="B6" s="0">
+        <v>291.0097</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9475</v>
+      </c>
+      <c r="B7" s="0">
+        <v>289.9032</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.9154</v>
+      </c>
+      <c r="B8" s="0">
+        <v>286.5837</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.9047</v>
+      </c>
+      <c r="B9" s="0">
+        <v>285.4772</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8609</v>
+      </c>
+      <c r="B10" s="0">
+        <v>283.2642</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7996</v>
+      </c>
+      <c r="B11" s="0">
+        <v>281.0512</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7704</v>
+      </c>
+      <c r="B12" s="0">
+        <v>279.9447</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6984</v>
+      </c>
+      <c r="B13" s="0">
+        <v>274.4122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.5992</v>
+      </c>
+      <c r="B14" s="0">
+        <v>272.1992</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.5506</v>
+      </c>
+      <c r="B15" s="0">
+        <v>268.8797</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B16" s="0">
+        <v>266.6667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4494</v>
+      </c>
+      <c r="B17" s="0">
+        <v>264.4537</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3998</v>
+      </c>
+      <c r="B18" s="0">
+        <v>263.3472</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3492</v>
+      </c>
+      <c r="B19" s="0">
+        <v>261.1342</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.3016</v>
+      </c>
+      <c r="B20" s="0">
+        <v>257.8147</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="B21" s="0">
+        <v>255.6017</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.2023</v>
+      </c>
+      <c r="B22" s="0">
+        <v>252.2822</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1839</v>
+      </c>
+      <c r="B23" s="0">
+        <v>251.1757</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1625</v>
+      </c>
+      <c r="B24" s="0">
+        <v>250.0692</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1411</v>
+      </c>
+      <c r="B25" s="0">
+        <v>247.8562</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0739</v>
+      </c>
+      <c r="B26" s="0">
+        <v>240.1107</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0302</v>
+      </c>
+      <c r="B27" s="0">
+        <v>226.8326</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0126</v>
+      </c>
+      <c r="B28" s="0">
+        <v>212.4481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0039</v>
+      </c>
+      <c r="B29" s="0">
+        <v>196.9571</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="B30" s="0">
+        <v>183.6791</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0</v>
+      </c>
+      <c r="B31" s="0">
+        <v>168.1881</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="B32" s="0">
+        <v>151.5906</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>-0.001</v>
+      </c>
+      <c r="B33" s="0">
+        <v>134.9931</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0</v>
+      </c>
+      <c r="B34" s="0">
+        <v>119.5021</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0</v>
+      </c>
+      <c r="B35" s="0">
+        <v>101.7981</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0</v>
+      </c>
+      <c r="B36" s="0">
+        <v>85.2006</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0</v>
+      </c>
+      <c r="B37" s="0">
+        <v>67.4965</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0</v>
+      </c>
+      <c r="B38" s="0">
+        <v>50.899</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0</v>
+      </c>
+      <c r="B39" s="0">
+        <v>34.3015</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0</v>
+      </c>
+      <c r="B40" s="0">
+        <v>15.491</v>
+      </c>
+    </row>
+    <row r="41"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9903</v>
+      </c>
+      <c r="B3" s="0">
+        <v>190.3181</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9767</v>
+      </c>
+      <c r="B4" s="0">
+        <v>189.2116</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.965</v>
+      </c>
+      <c r="B5" s="0">
+        <v>189.2116</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9533</v>
+      </c>
+      <c r="B6" s="0">
+        <v>189.2116</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9416</v>
+      </c>
+      <c r="B7" s="0">
+        <v>189.2116</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.9319</v>
+      </c>
+      <c r="B8" s="0">
+        <v>189.2116</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.9105</v>
+      </c>
+      <c r="B9" s="0">
+        <v>188.1051</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8794</v>
+      </c>
+      <c r="B10" s="0">
+        <v>188.1051</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.8589</v>
+      </c>
+      <c r="B11" s="0">
+        <v>188.1051</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.8395</v>
+      </c>
+      <c r="B12" s="0">
+        <v>188.1051</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B13" s="0">
+        <v>188.1051</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.7899</v>
+      </c>
+      <c r="B14" s="0">
+        <v>189.2116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.7588</v>
+      </c>
+      <c r="B15" s="0">
+        <v>189.2116</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.7198</v>
+      </c>
+      <c r="B16" s="0">
+        <v>188.1051</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6693</v>
+      </c>
+      <c r="B17" s="0">
+        <v>189.2116</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.6196</v>
+      </c>
+      <c r="B18" s="0">
+        <v>189.2116</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5506</v>
+      </c>
+      <c r="B19" s="0">
+        <v>189.2116</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B20" s="0">
+        <v>189.2116</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4504</v>
+      </c>
+      <c r="B21" s="0">
+        <v>189.2116</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4008</v>
+      </c>
+      <c r="B22" s="0">
+        <v>189.2116</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.3512</v>
+      </c>
+      <c r="B23" s="0">
+        <v>188.1051</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3006</v>
+      </c>
+      <c r="B24" s="0">
+        <v>188.1051</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="B25" s="0">
+        <v>186.9986</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.2014</v>
+      </c>
+      <c r="B26" s="0">
+        <v>186.9986</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.1829</v>
+      </c>
+      <c r="B27" s="0">
+        <v>185.8921</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.1625</v>
+      </c>
+      <c r="B28" s="0">
+        <v>185.8921</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.1469</v>
+      </c>
+      <c r="B29" s="0">
+        <v>184.7856</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0982</v>
+      </c>
+      <c r="B30" s="0">
+        <v>182.5726</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="B31" s="0">
+        <v>132.7801</v>
+      </c>
+    </row>
+    <row r="32"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.999</v>
+      </c>
+      <c r="B3" s="0">
+        <v>293.2227</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9893</v>
+      </c>
+      <c r="B4" s="0">
+        <v>287.6902</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9786</v>
+      </c>
+      <c r="B5" s="0">
+        <v>282.1577</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9669</v>
+      </c>
+      <c r="B6" s="0">
+        <v>279.9447</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9543</v>
+      </c>
+      <c r="B7" s="0">
+        <v>278.8382</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.9426</v>
+      </c>
+      <c r="B8" s="0">
+        <v>277.7317</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.9339</v>
+      </c>
+      <c r="B9" s="0">
+        <v>277.7317</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.9261</v>
+      </c>
+      <c r="B10" s="0">
+        <v>276.6252</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.9163</v>
+      </c>
+      <c r="B11" s="0">
+        <v>275.5187</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.9056</v>
+      </c>
+      <c r="B12" s="0">
+        <v>275.5187</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.8901</v>
+      </c>
+      <c r="B13" s="0">
+        <v>275.5187</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.8755</v>
+      </c>
+      <c r="B14" s="0">
+        <v>275.5187</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.8599</v>
+      </c>
+      <c r="B15" s="0">
+        <v>275.5187</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.8405</v>
+      </c>
+      <c r="B16" s="0">
+        <v>274.4122</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B17" s="0">
+        <v>273.3057</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.8006</v>
+      </c>
+      <c r="B18" s="0">
+        <v>273.3057</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.7704</v>
+      </c>
+      <c r="B19" s="0">
+        <v>273.3057</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.7403</v>
+      </c>
+      <c r="B20" s="0">
+        <v>273.3057</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6984</v>
+      </c>
+      <c r="B21" s="0">
+        <v>275.5187</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.6508</v>
+      </c>
+      <c r="B22" s="0">
+        <v>273.3057</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.5992</v>
+      </c>
+      <c r="B23" s="0">
+        <v>273.3057</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.5516</v>
+      </c>
+      <c r="B24" s="0">
+        <v>273.3057</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B25" s="0">
+        <v>272.1992</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.4504</v>
+      </c>
+      <c r="B26" s="0">
+        <v>272.1992</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.3988</v>
+      </c>
+      <c r="B27" s="0">
+        <v>271.0927</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.3531</v>
+      </c>
+      <c r="B28" s="0">
+        <v>269.9862</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.3035</v>
+      </c>
+      <c r="B29" s="0">
+        <v>267.7732</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.251</v>
+      </c>
+      <c r="B30" s="0">
+        <v>266.6667</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.2053</v>
+      </c>
+      <c r="B31" s="0">
+        <v>263.3472</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.1858</v>
+      </c>
+      <c r="B32" s="0">
+        <v>262.2407</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.1644</v>
+      </c>
+      <c r="B33" s="0">
+        <v>260.0277</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.1381</v>
+      </c>
+      <c r="B34" s="0">
+        <v>255.6017</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0924</v>
+      </c>
+      <c r="B35" s="0">
+        <v>246.7497</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0584</v>
+      </c>
+      <c r="B36" s="0">
+        <v>235.6846</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.036</v>
+      </c>
+      <c r="B37" s="0">
+        <v>226.8326</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0195</v>
+      </c>
+      <c r="B38" s="0">
+        <v>215.7676</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0097</v>
+      </c>
+      <c r="B39" s="0">
+        <v>203.5961</v>
+      </c>
+    </row>
+    <row r="40"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>